--- a/Employee Attendance Tracking.xlsx
+++ b/Employee Attendance Tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D5B97-04FF-4F98-B364-C3FBB6B78766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFD90D4-B284-46CA-8A77-5743E6B31FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CD2CC495-5487-4B4F-9BCB-18E5E5D776F1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,7 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,13 +334,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -377,7 +376,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2712720" y="373380"/>
+              <a:off x="2712720" y="525780"/>
               <a:ext cx="1828800" cy="2581275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -779,7 +778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E54E3F1-0F3B-47EA-A197-B4EB36AED505}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E54E3F1-0F3B-47EA-A197-B4EB36AED505}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -1279,7 +1278,7 @@
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -1287,7 +1286,7 @@
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -1295,7 +1294,7 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -1303,7 +1302,7 @@
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -1311,7 +1310,7 @@
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -1319,7 +1318,7 @@
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -1327,7 +1326,7 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1334,7 @@
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -1343,7 +1342,7 @@
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1350,7 @@
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -1359,7 +1358,7 @@
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -1367,7 +1366,7 @@
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -1375,7 +1374,7 @@
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
@@ -1383,7 +1382,7 @@
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1390,7 @@
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1398,7 @@
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -1407,7 +1406,7 @@
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -1415,7 +1414,7 @@
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
@@ -1423,7 +1422,7 @@
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
@@ -1431,7 +1430,7 @@
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +1438,7 @@
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>20</v>
       </c>
     </row>
@@ -1461,7 +1460,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,7 +1530,7 @@
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>NETWORKDAYS(B2,"2024-08-31")</f>
         <v>22</v>
       </c>
@@ -1561,7 +1560,7 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>NETWORKDAYS(B3,"2024-08-31")</f>
         <v>22</v>
       </c>
@@ -1591,7 +1590,7 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f t="shared" ref="I4:I30" si="0">NETWORKDAYS(B4,"2024-08-31")</f>
         <v>21</v>
       </c>
@@ -1621,7 +1620,7 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1651,7 +1650,7 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1681,7 +1680,7 @@
       <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1711,7 +1710,7 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1741,7 +1740,7 @@
       <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1771,7 +1770,7 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1801,7 +1800,7 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1831,7 +1830,7 @@
       <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1861,7 +1860,7 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1891,7 +1890,7 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1921,7 +1920,7 @@
       <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1951,7 +1950,7 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1981,7 +1980,7 @@
       <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2011,7 +2010,7 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2041,7 +2040,7 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2071,7 +2070,7 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2101,7 +2100,7 @@
       <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2131,7 +2130,7 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2161,7 +2160,7 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2191,7 +2190,7 @@
       <c r="H24" s="1">
         <v>3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2221,7 +2220,7 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2251,7 +2250,7 @@
       <c r="H26" s="1">
         <v>2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2281,7 +2280,7 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2311,7 +2310,7 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2341,7 +2340,7 @@
       <c r="H29" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2371,7 +2370,7 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
